--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.06580366666666</v>
+        <v>20.030895</v>
       </c>
       <c r="H2">
-        <v>66.19741099999999</v>
+        <v>60.092685</v>
       </c>
       <c r="I2">
-        <v>0.1403713626377477</v>
+        <v>0.1333691355055119</v>
       </c>
       <c r="J2">
-        <v>0.1403713626377477</v>
+        <v>0.1333691355055119</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2423163333333334</v>
+        <v>0.580817</v>
       </c>
       <c r="N2">
-        <v>0.7269490000000001</v>
+        <v>1.742451</v>
       </c>
       <c r="O2">
-        <v>0.08545736829972227</v>
+        <v>0.1705489461834183</v>
       </c>
       <c r="P2">
-        <v>0.08545736829972225</v>
+        <v>0.1705489461834183</v>
       </c>
       <c r="Q2">
-        <v>5.346904636559889</v>
+        <v>11.634284341215</v>
       </c>
       <c r="R2">
-        <v>48.12214172903899</v>
+        <v>104.708559070935</v>
       </c>
       <c r="S2">
-        <v>0.01199576723566788</v>
+        <v>0.02274596551385858</v>
       </c>
       <c r="T2">
-        <v>0.01199576723566788</v>
+        <v>0.02274596551385858</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.06580366666666</v>
+        <v>20.030895</v>
       </c>
       <c r="H3">
-        <v>66.19741099999999</v>
+        <v>60.092685</v>
       </c>
       <c r="I3">
-        <v>0.1403713626377477</v>
+        <v>0.1333691355055119</v>
       </c>
       <c r="J3">
-        <v>0.1403713626377477</v>
+        <v>0.1333691355055119</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.824479</v>
       </c>
       <c r="O3">
-        <v>0.8022598770432592</v>
+        <v>0.6679715536912479</v>
       </c>
       <c r="P3">
-        <v>0.8022598770432591</v>
+        <v>0.6679715536912479</v>
       </c>
       <c r="Q3">
-        <v>50.19587124709655</v>
+        <v>45.566807426235</v>
       </c>
       <c r="R3">
-        <v>451.7628412238689</v>
+        <v>410.101266836115</v>
       </c>
       <c r="S3">
-        <v>0.1126143121301542</v>
+        <v>0.08908678865807539</v>
       </c>
       <c r="T3">
-        <v>0.1126143121301542</v>
+        <v>0.08908678865807539</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.06580366666666</v>
+        <v>20.030895</v>
       </c>
       <c r="H4">
-        <v>66.19741099999999</v>
+        <v>60.092685</v>
       </c>
       <c r="I4">
-        <v>0.1403713626377477</v>
+        <v>0.1333691355055119</v>
       </c>
       <c r="J4">
-        <v>0.1403713626377477</v>
+        <v>0.1333691355055119</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3183803333333333</v>
+        <v>0.5499303333333333</v>
       </c>
       <c r="N4">
-        <v>0.955141</v>
+        <v>1.649791</v>
       </c>
       <c r="O4">
-        <v>0.1122827546570186</v>
+        <v>0.1614795001253337</v>
       </c>
       <c r="P4">
-        <v>0.1122827546570186</v>
+        <v>0.1614795001253338</v>
       </c>
       <c r="Q4">
-        <v>7.025317926661221</v>
+        <v>11.015596764315</v>
       </c>
       <c r="R4">
-        <v>63.22786133995099</v>
+        <v>99.140370878835</v>
       </c>
       <c r="S4">
-        <v>0.01576128327192561</v>
+        <v>0.02153638133357797</v>
       </c>
       <c r="T4">
-        <v>0.01576128327192561</v>
+        <v>0.02153638133357797</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>294.28833</v>
       </c>
       <c r="I5">
-        <v>0.6240373039738242</v>
+        <v>0.6531407302146811</v>
       </c>
       <c r="J5">
-        <v>0.6240373039738242</v>
+        <v>0.653140730214681</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2423163333333334</v>
+        <v>0.580817</v>
       </c>
       <c r="N5">
-        <v>0.7269490000000001</v>
+        <v>1.742451</v>
       </c>
       <c r="O5">
-        <v>0.08545736829972227</v>
+        <v>0.1705489461834183</v>
       </c>
       <c r="P5">
-        <v>0.08545736829972225</v>
+        <v>0.1705489461834183</v>
       </c>
       <c r="Q5">
-        <v>23.77028968946334</v>
+        <v>56.97588832187</v>
       </c>
       <c r="R5">
-        <v>213.93260720517</v>
+        <v>512.7829948968299</v>
       </c>
       <c r="S5">
-        <v>0.05332858571845683</v>
+        <v>0.1113924632475822</v>
       </c>
       <c r="T5">
-        <v>0.05332858571845682</v>
+        <v>0.1113924632475822</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>294.28833</v>
       </c>
       <c r="I6">
-        <v>0.6240373039738242</v>
+        <v>0.6531407302146811</v>
       </c>
       <c r="J6">
-        <v>0.6240373039738242</v>
+        <v>0.653140730214681</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>6.824479</v>
       </c>
       <c r="O6">
-        <v>0.8022598770432592</v>
+        <v>0.6679715536912479</v>
       </c>
       <c r="P6">
-        <v>0.8022598770432591</v>
+        <v>0.6679715536912479</v>
       </c>
       <c r="Q6">
         <v>223.1516142255633</v>
@@ -821,10 +821,10 @@
         <v>2008.36452803007</v>
       </c>
       <c r="S6">
-        <v>0.5006400907564471</v>
+        <v>0.4362794283405367</v>
       </c>
       <c r="T6">
-        <v>0.5006400907564471</v>
+        <v>0.4362794283405367</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>294.28833</v>
       </c>
       <c r="I7">
-        <v>0.6240373039738242</v>
+        <v>0.6531407302146811</v>
       </c>
       <c r="J7">
-        <v>0.6240373039738242</v>
+        <v>0.653140730214681</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3183803333333333</v>
+        <v>0.5499303333333333</v>
       </c>
       <c r="N7">
-        <v>0.955141</v>
+        <v>1.649791</v>
       </c>
       <c r="O7">
-        <v>0.1122827546570186</v>
+        <v>0.1614795001253337</v>
       </c>
       <c r="P7">
-        <v>0.1122827546570186</v>
+        <v>0.1614795001253338</v>
       </c>
       <c r="Q7">
-        <v>31.23187220050333</v>
+        <v>53.94602647100333</v>
       </c>
       <c r="R7">
-        <v>281.08684980453</v>
+        <v>485.51423823903</v>
       </c>
       <c r="S7">
-        <v>0.07006862749892023</v>
+        <v>0.1054688386265622</v>
       </c>
       <c r="T7">
-        <v>0.07006862749892023</v>
+        <v>0.1054688386265622</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.467887999999999</v>
+        <v>3.916733333333333</v>
       </c>
       <c r="H8">
-        <v>22.403664</v>
+        <v>11.7502</v>
       </c>
       <c r="I8">
-        <v>0.04750688578679087</v>
+        <v>0.0260782825067122</v>
       </c>
       <c r="J8">
-        <v>0.04750688578679087</v>
+        <v>0.02607828250671219</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2423163333333334</v>
+        <v>0.580817</v>
       </c>
       <c r="N8">
-        <v>0.7269490000000001</v>
+        <v>1.742451</v>
       </c>
       <c r="O8">
-        <v>0.08545736829972227</v>
+        <v>0.1705489461834183</v>
       </c>
       <c r="P8">
-        <v>0.08545736829972225</v>
+        <v>0.1705489461834183</v>
       </c>
       <c r="Q8">
-        <v>1.809591237904</v>
+        <v>2.274905304466667</v>
       </c>
       <c r="R8">
-        <v>16.286321141136</v>
+        <v>20.4741477402</v>
       </c>
       <c r="S8">
-        <v>0.004059813435454628</v>
+        <v>0.004447623599793239</v>
       </c>
       <c r="T8">
-        <v>0.004059813435454628</v>
+        <v>0.004447623599793238</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.467887999999999</v>
+        <v>3.916733333333333</v>
       </c>
       <c r="H9">
-        <v>22.403664</v>
+        <v>11.7502</v>
       </c>
       <c r="I9">
-        <v>0.04750688578679087</v>
+        <v>0.0260782825067122</v>
       </c>
       <c r="J9">
-        <v>0.04750688578679087</v>
+        <v>0.02607828250671219</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>6.824479</v>
       </c>
       <c r="O9">
-        <v>0.8022598770432592</v>
+        <v>0.6679715536912479</v>
       </c>
       <c r="P9">
-        <v>0.8022598770432591</v>
+        <v>0.6679715536912479</v>
       </c>
       <c r="Q9">
-        <v>16.988148276784</v>
+        <v>8.909888127311111</v>
       </c>
       <c r="R9">
-        <v>152.893334491056</v>
+        <v>80.1889931458</v>
       </c>
       <c r="S9">
-        <v>0.038112868350019</v>
+        <v>0.01741955088360784</v>
       </c>
       <c r="T9">
-        <v>0.038112868350019</v>
+        <v>0.01741955088360784</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.467887999999999</v>
+        <v>3.916733333333333</v>
       </c>
       <c r="H10">
-        <v>22.403664</v>
+        <v>11.7502</v>
       </c>
       <c r="I10">
-        <v>0.04750688578679087</v>
+        <v>0.0260782825067122</v>
       </c>
       <c r="J10">
-        <v>0.04750688578679087</v>
+        <v>0.02607828250671219</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3183803333333333</v>
+        <v>0.5499303333333333</v>
       </c>
       <c r="N10">
-        <v>0.955141</v>
+        <v>1.649791</v>
       </c>
       <c r="O10">
-        <v>0.1122827546570186</v>
+        <v>0.1614795001253337</v>
       </c>
       <c r="P10">
-        <v>0.1122827546570186</v>
+        <v>0.1614795001253338</v>
       </c>
       <c r="Q10">
-        <v>2.377628670736</v>
+        <v>2.153930467577778</v>
       </c>
       <c r="R10">
-        <v>21.398658036624</v>
+        <v>19.3853742082</v>
       </c>
       <c r="S10">
-        <v>0.005334204001317243</v>
+        <v>0.004211108023311121</v>
       </c>
       <c r="T10">
-        <v>0.005334204001317244</v>
+        <v>0.004211108023311121</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.56610533333334</v>
+        <v>28.14764533333333</v>
       </c>
       <c r="H11">
-        <v>88.69831600000001</v>
+        <v>84.442936</v>
       </c>
       <c r="I11">
-        <v>0.1880844476016372</v>
+        <v>0.1874118517730947</v>
       </c>
       <c r="J11">
-        <v>0.1880844476016372</v>
+        <v>0.1874118517730947</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.2423163333333334</v>
+        <v>0.580817</v>
       </c>
       <c r="N11">
-        <v>0.7269490000000001</v>
+        <v>1.742451</v>
       </c>
       <c r="O11">
-        <v>0.08545736829972227</v>
+        <v>0.1705489461834183</v>
       </c>
       <c r="P11">
-        <v>0.08545736829972225</v>
+        <v>0.1705489461834183</v>
       </c>
       <c r="Q11">
-        <v>7.164350235320446</v>
+        <v>16.34863091957067</v>
       </c>
       <c r="R11">
-        <v>64.47915211788401</v>
+        <v>147.137678276136</v>
       </c>
       <c r="S11">
-        <v>0.01607320191014293</v>
+        <v>0.03196289382218431</v>
       </c>
       <c r="T11">
-        <v>0.01607320191014292</v>
+        <v>0.03196289382218431</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.56610533333334</v>
+        <v>28.14764533333333</v>
       </c>
       <c r="H12">
-        <v>88.69831600000001</v>
+        <v>84.442936</v>
       </c>
       <c r="I12">
-        <v>0.1880844476016372</v>
+        <v>0.1874118517730947</v>
       </c>
       <c r="J12">
-        <v>0.1880844476016372</v>
+        <v>0.1874118517730947</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>6.824479</v>
       </c>
       <c r="O12">
-        <v>0.8022598770432592</v>
+        <v>0.6679715536912479</v>
       </c>
       <c r="P12">
-        <v>0.8022598770432591</v>
+        <v>0.6679715536912479</v>
       </c>
       <c r="Q12">
-        <v>67.25775498637378</v>
+        <v>64.03100482559378</v>
       </c>
       <c r="R12">
-        <v>605.3197948773641</v>
+        <v>576.279043430344</v>
       </c>
       <c r="S12">
-        <v>0.1508926058066388</v>
+        <v>0.1251857858090279</v>
       </c>
       <c r="T12">
-        <v>0.1508926058066388</v>
+        <v>0.1251857858090279</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.56610533333334</v>
+        <v>28.14764533333333</v>
       </c>
       <c r="H13">
-        <v>88.69831600000001</v>
+        <v>84.442936</v>
       </c>
       <c r="I13">
-        <v>0.1880844476016372</v>
+        <v>0.1874118517730947</v>
       </c>
       <c r="J13">
-        <v>0.1880844476016372</v>
+        <v>0.1874118517730947</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3183803333333333</v>
+        <v>0.5499303333333333</v>
       </c>
       <c r="N13">
-        <v>0.955141</v>
+        <v>1.649791</v>
       </c>
       <c r="O13">
-        <v>0.1122827546570186</v>
+        <v>0.1614795001253337</v>
       </c>
       <c r="P13">
-        <v>0.1122827546570186</v>
+        <v>0.1614795001253338</v>
       </c>
       <c r="Q13">
-        <v>9.413266471395112</v>
+        <v>15.47924398070844</v>
       </c>
       <c r="R13">
-        <v>84.71939824255601</v>
+        <v>139.313195826376</v>
       </c>
       <c r="S13">
-        <v>0.0211186398848555</v>
+        <v>0.03026317214188248</v>
       </c>
       <c r="T13">
-        <v>0.0211186398848555</v>
+        <v>0.03026317214188248</v>
       </c>
     </row>
   </sheetData>
